--- a/Project Files/Forms System Final/exports/jh_sf3.xlsx
+++ b/Project Files/Forms System Final/exports/jh_sf3.xlsx
@@ -108,16 +108,16 @@
     <t xml:space="preserve">FUMINO ONA FURAHASHI </t>
   </si>
   <si>
-    <t>ENG32</t>
-  </si>
-  <si>
-    <t>MATH31</t>
-  </si>
-  <si>
-    <t>FILIPINO-69</t>
-  </si>
-  <si>
-    <t>AP20</t>
+    <t>1. ENG32</t>
+  </si>
+  <si>
+    <t>2. MATH31</t>
+  </si>
+  <si>
+    <t>3. FILIPINO-69</t>
+  </si>
+  <si>
+    <t>4. AP20</t>
   </si>
   <si>
     <t>1</t>

--- a/Project Files/Forms System Final/exports/jh_sf3.xlsx
+++ b/Project Files/Forms System Final/exports/jh_sf3.xlsx
@@ -102,10 +102,10 @@
     <t>Grade 7</t>
   </si>
   <si>
-    <t xml:space="preserve"> FIDELITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUMINO ONA FURAHASHI </t>
+    <t>FIDELITY</t>
+  </si>
+  <si>
+    <t>FURAHASHI, FUMINO, ONA</t>
   </si>
   <si>
     <t>1. ENG32</t>
@@ -123,6 +123,24 @@
     <t>1</t>
   </si>
   <si>
+    <t xml:space="preserve">Rizal, Jose </t>
+  </si>
+  <si>
+    <t>2020-11-03</t>
+  </si>
+  <si>
+    <t>2021-01-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>&lt;== Total For Male ==&gt;</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Paderogao, Phil Rey, E. Jr</t>
   </si>
   <si>
@@ -135,25 +153,7 @@
     <t>NEG</t>
   </si>
   <si>
-    <t>2021-01-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>ENG32:LLTR, MATH31:PTL</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rizal, Jose </t>
-  </si>
-  <si>
-    <t>2020-11-03</t>
-  </si>
-  <si>
-    <t>&lt;== Total For Male ==&gt;</t>
   </si>
   <si>
     <t>&lt;== Total For Female ==&gt;</t>
@@ -1323,131 +1323,131 @@
         <v>33</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W8" s="42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X8" s="43"/>
       <c r="Y8" s="44"/>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W9" s="42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X9" s="43"/>
       <c r="Y9" s="44"/>
@@ -1457,216 +1457,216 @@
         <v>37</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W10" s="42" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="X10" s="43"/>
       <c r="Y10" s="44"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W11" s="42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X11" s="43"/>
       <c r="Y11" s="44"/>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W12" s="42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X12" s="43"/>
       <c r="Y12" s="44"/>
